--- a/tests/data/vision/vision_validation.xlsx
+++ b/tests/data/vision/vision_validation.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="25601"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="25629"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://alliander-my.sharepoint.com/personal/nitish_bharambe_alliander_com/Documents/Documents/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{3DB06709-335C-46FD-AA44-DBDD108C9FC5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{AF4A3D4A-256C-446C-B77B-ABE11994FF33}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -21,21 +21,23 @@
     <sheet name="Reactance coils" sheetId="7" r:id="rId6"/>
     <sheet name="Transformers" sheetId="8" r:id="rId7"/>
     <sheet name="Special transformers" sheetId="9" r:id="rId8"/>
-    <sheet name="Sources" sheetId="10" r:id="rId9"/>
-    <sheet name="Synchronous generators" sheetId="11" r:id="rId10"/>
-    <sheet name="Wind turbines" sheetId="12" r:id="rId11"/>
-    <sheet name="Loads" sheetId="13" r:id="rId12"/>
-    <sheet name="Transformer loads" sheetId="14" r:id="rId13"/>
-    <sheet name="Capacitors" sheetId="15" r:id="rId14"/>
-    <sheet name="Zigzag transformers" sheetId="16" r:id="rId15"/>
-    <sheet name="Pvs" sheetId="17" r:id="rId16"/>
+    <sheet name="Three winding transformers" sheetId="10" r:id="rId9"/>
+    <sheet name="Sources" sheetId="11" r:id="rId10"/>
+    <sheet name="Synchronous generators" sheetId="12" r:id="rId11"/>
+    <sheet name="Wind turbines" sheetId="13" r:id="rId12"/>
+    <sheet name="Loads" sheetId="14" r:id="rId13"/>
+    <sheet name="Transformer loads" sheetId="15" r:id="rId14"/>
+    <sheet name="Capacitors" sheetId="16" r:id="rId15"/>
+    <sheet name="Reactors" sheetId="17" r:id="rId16"/>
+    <sheet name="Zigzag transformers" sheetId="18" r:id="rId17"/>
+    <sheet name="Pvs" sheetId="19" r:id="rId18"/>
   </sheets>
   <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="789" uniqueCount="245">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="952" uniqueCount="303">
   <si>
     <t>Number</t>
   </si>
@@ -500,6 +502,180 @@
   </si>
   <si>
     <t>23 MVA</t>
+  </si>
+  <si>
+    <t>Node1.Number</t>
+  </si>
+  <si>
+    <t>Node1.Name</t>
+  </si>
+  <si>
+    <t>Node1.ID</t>
+  </si>
+  <si>
+    <t>Node1.Field</t>
+  </si>
+  <si>
+    <t>Switch state 1</t>
+  </si>
+  <si>
+    <t>Node2.Number</t>
+  </si>
+  <si>
+    <t>Node2.Name</t>
+  </si>
+  <si>
+    <t>Node2.ID</t>
+  </si>
+  <si>
+    <t>Node2.Field</t>
+  </si>
+  <si>
+    <t>Switch state 2</t>
+  </si>
+  <si>
+    <t>Node3.Number</t>
+  </si>
+  <si>
+    <t>Node3.Name</t>
+  </si>
+  <si>
+    <t>Node3.ID</t>
+  </si>
+  <si>
+    <t>Node3.Field</t>
+  </si>
+  <si>
+    <t>Switch state 3</t>
+  </si>
+  <si>
+    <t>Tap c</t>
+  </si>
+  <si>
+    <t>Tap a</t>
+  </si>
+  <si>
+    <t>N3</t>
+  </si>
+  <si>
+    <t>Re3</t>
+  </si>
+  <si>
+    <t>Xe3</t>
+  </si>
+  <si>
+    <t>Snom1'</t>
+  </si>
+  <si>
+    <t>Snom2'</t>
+  </si>
+  <si>
+    <t>Snom3'</t>
+  </si>
+  <si>
+    <t>Phase shift 12</t>
+  </si>
+  <si>
+    <t>Phase shift 13</t>
+  </si>
+  <si>
+    <t>Snom1</t>
+  </si>
+  <si>
+    <t>Snom2</t>
+  </si>
+  <si>
+    <t>Snom3</t>
+  </si>
+  <si>
+    <t>Unom3</t>
+  </si>
+  <si>
+    <t>uk12</t>
+  </si>
+  <si>
+    <t>uk13</t>
+  </si>
+  <si>
+    <t>uk23</t>
+  </si>
+  <si>
+    <t>Pk12</t>
+  </si>
+  <si>
+    <t>Pk13</t>
+  </si>
+  <si>
+    <t>Pk23</t>
+  </si>
+  <si>
+    <t>Sat12</t>
+  </si>
+  <si>
+    <t>Sat13</t>
+  </si>
+  <si>
+    <t>Sat23</t>
+  </si>
+  <si>
+    <t>R012</t>
+  </si>
+  <si>
+    <t>Z012</t>
+  </si>
+  <si>
+    <t>R013</t>
+  </si>
+  <si>
+    <t>Z013</t>
+  </si>
+  <si>
+    <t>R023</t>
+  </si>
+  <si>
+    <t>Z023</t>
+  </si>
+  <si>
+    <t>Ik(2s)1</t>
+  </si>
+  <si>
+    <t>Ik(2s)2</t>
+  </si>
+  <si>
+    <t>Ik(2s)3</t>
+  </si>
+  <si>
+    <t>Tap side c</t>
+  </si>
+  <si>
+    <t>Tap size c</t>
+  </si>
+  <si>
+    <t>Tap min c</t>
+  </si>
+  <si>
+    <t>Tap nom c</t>
+  </si>
+  <si>
+    <t>Tap max c</t>
+  </si>
+  <si>
+    <t>Tap side a</t>
+  </si>
+  <si>
+    <t>Tap size a</t>
+  </si>
+  <si>
+    <t>Tap min a</t>
+  </si>
+  <si>
+    <t>Tap nom a</t>
+  </si>
+  <si>
+    <t>Tap max a</t>
+  </si>
+  <si>
+    <t>Dyn5yn7</t>
   </si>
   <si>
     <t>Subnumber</t>
@@ -1145,13 +1321,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AC6"/>
+  <dimension ref="A1:AC7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="5" ySplit="2" topLeftCell="F3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="B6" sqref="B6"/>
+      <selection pane="bottomRight"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1545,6 +1721,56 @@
         <v>0</v>
       </c>
     </row>
+    <row r="7" spans="1:29" x14ac:dyDescent="0.3">
+      <c r="A7">
+        <v>5</v>
+      </c>
+      <c r="E7">
+        <v>0.4</v>
+      </c>
+      <c r="F7">
+        <v>1</v>
+      </c>
+      <c r="J7">
+        <v>0</v>
+      </c>
+      <c r="K7">
+        <v>0</v>
+      </c>
+      <c r="L7">
+        <v>0</v>
+      </c>
+      <c r="M7">
+        <v>0</v>
+      </c>
+      <c r="N7">
+        <v>0</v>
+      </c>
+      <c r="O7">
+        <v>0</v>
+      </c>
+      <c r="P7">
+        <v>0</v>
+      </c>
+      <c r="Q7" t="b">
+        <v>0</v>
+      </c>
+      <c r="S7">
+        <v>0</v>
+      </c>
+      <c r="T7">
+        <v>0</v>
+      </c>
+      <c r="U7">
+        <v>0</v>
+      </c>
+      <c r="V7">
+        <v>0</v>
+      </c>
+      <c r="W7">
+        <v>0</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -1552,6 +1778,204 @@
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0900-000000000000}">
+  <dimension ref="A1:U3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane xSplit="3" ySplit="2" topLeftCell="D3" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight"/>
+      <selection pane="bottomLeft"/>
+      <selection pane="bottomRight"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="12.109375" customWidth="1"/>
+    <col min="2" max="2" width="8.33203125" customWidth="1"/>
+    <col min="3" max="3" width="5.88671875" customWidth="1"/>
+    <col min="4" max="4" width="14.77734375" customWidth="1"/>
+    <col min="5" max="5" width="12.5546875" customWidth="1"/>
+    <col min="6" max="6" width="8.77734375" customWidth="1"/>
+    <col min="7" max="7" width="7.44140625" customWidth="1"/>
+    <col min="8" max="8" width="12.77734375" customWidth="1"/>
+    <col min="9" max="9" width="17.88671875" customWidth="1"/>
+    <col min="10" max="10" width="16.21875" customWidth="1"/>
+    <col min="11" max="11" width="24.21875" customWidth="1"/>
+    <col min="12" max="12" width="22.88671875" customWidth="1"/>
+    <col min="13" max="13" width="23.5546875" customWidth="1"/>
+    <col min="14" max="14" width="5.88671875" customWidth="1"/>
+    <col min="15" max="15" width="6.33203125" customWidth="1"/>
+    <col min="16" max="16" width="8.44140625" customWidth="1"/>
+    <col min="17" max="17" width="7.77734375" customWidth="1"/>
+    <col min="18" max="18" width="8.21875" customWidth="1"/>
+    <col min="19" max="19" width="5.88671875" customWidth="1"/>
+    <col min="20" max="20" width="6.33203125" customWidth="1"/>
+    <col min="21" max="21" width="7.77734375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A1" s="3" t="s">
+        <v>213</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>214</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>215</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>216</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>217</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>218</v>
+      </c>
+      <c r="I1" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="J1" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="K1" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="L1" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="M1" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="N1" s="3" t="s">
+        <v>219</v>
+      </c>
+      <c r="O1" s="3" t="s">
+        <v>221</v>
+      </c>
+      <c r="P1" s="3" t="s">
+        <v>222</v>
+      </c>
+      <c r="Q1" s="3" t="s">
+        <v>223</v>
+      </c>
+      <c r="R1" s="3" t="s">
+        <v>224</v>
+      </c>
+      <c r="S1" s="3" t="s">
+        <v>225</v>
+      </c>
+      <c r="T1" s="3" t="s">
+        <v>226</v>
+      </c>
+      <c r="U1" s="1" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="2" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="H2" s="2"/>
+      <c r="I2" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="J2" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="K2" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="L2" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="M2" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="N2" s="4" t="s">
+        <v>220</v>
+      </c>
+      <c r="O2" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="P2" s="4" t="s">
+        <v>112</v>
+      </c>
+      <c r="Q2" s="4" t="s">
+        <v>112</v>
+      </c>
+      <c r="R2" s="4" t="s">
+        <v>112</v>
+      </c>
+      <c r="S2" s="4"/>
+      <c r="T2" s="4"/>
+      <c r="U2" s="2"/>
+    </row>
+    <row r="3" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A3">
+        <v>1</v>
+      </c>
+      <c r="B3" t="s">
+        <v>228</v>
+      </c>
+      <c r="D3">
+        <v>1</v>
+      </c>
+      <c r="E3" t="s">
+        <v>39</v>
+      </c>
+      <c r="H3" t="s">
+        <v>92</v>
+      </c>
+      <c r="I3">
+        <v>0</v>
+      </c>
+      <c r="J3">
+        <v>0</v>
+      </c>
+      <c r="K3">
+        <v>0</v>
+      </c>
+      <c r="L3">
+        <v>0</v>
+      </c>
+      <c r="M3">
+        <v>0</v>
+      </c>
+      <c r="N3">
+        <v>1</v>
+      </c>
+      <c r="O3">
+        <v>0</v>
+      </c>
+      <c r="P3">
+        <v>1100</v>
+      </c>
+      <c r="Q3">
+        <v>990</v>
+      </c>
+      <c r="R3">
+        <v>1100</v>
+      </c>
+      <c r="S3">
+        <v>0.1</v>
+      </c>
+      <c r="T3">
+        <v>3</v>
+      </c>
+      <c r="U3" t="s">
+        <v>229</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0A00-000000000000}">
   <dimension ref="A1:AJ3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -1603,7 +2027,7 @@
   <sheetData>
     <row r="1" spans="1:36" x14ac:dyDescent="0.3">
       <c r="A1" s="3" t="s">
-        <v>155</v>
+        <v>213</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>1</v>
@@ -1612,19 +2036,19 @@
         <v>3</v>
       </c>
       <c r="D1" s="3" t="s">
-        <v>156</v>
+        <v>214</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>157</v>
+        <v>215</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>158</v>
+        <v>216</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>159</v>
+        <v>217</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>160</v>
+        <v>218</v>
       </c>
       <c r="I1" s="3" t="s">
         <v>12</v>
@@ -1642,34 +2066,34 @@
         <v>18</v>
       </c>
       <c r="N1" s="1" t="s">
-        <v>172</v>
+        <v>230</v>
       </c>
       <c r="O1" s="3" t="s">
-        <v>173</v>
+        <v>231</v>
       </c>
       <c r="P1" s="3" t="s">
-        <v>175</v>
+        <v>233</v>
       </c>
       <c r="Q1" s="1" t="s">
         <v>116</v>
       </c>
       <c r="R1" s="3" t="s">
-        <v>161</v>
+        <v>219</v>
       </c>
       <c r="S1" s="3" t="s">
-        <v>176</v>
+        <v>234</v>
       </c>
       <c r="T1" s="3" t="s">
-        <v>177</v>
+        <v>235</v>
       </c>
       <c r="U1" s="3" t="s">
-        <v>178</v>
+        <v>236</v>
       </c>
       <c r="V1" s="1" t="s">
-        <v>180</v>
+        <v>238</v>
       </c>
       <c r="W1" s="1" t="s">
-        <v>169</v>
+        <v>227</v>
       </c>
       <c r="X1" s="1" t="s">
         <v>96</v>
@@ -1681,34 +2105,34 @@
         <v>123</v>
       </c>
       <c r="AA1" s="3" t="s">
-        <v>181</v>
+        <v>239</v>
       </c>
       <c r="AB1" s="3" t="s">
-        <v>182</v>
+        <v>240</v>
       </c>
       <c r="AC1" s="3" t="s">
-        <v>183</v>
+        <v>241</v>
       </c>
       <c r="AD1" s="3" t="s">
-        <v>184</v>
+        <v>242</v>
       </c>
       <c r="AE1" s="3" t="s">
-        <v>185</v>
+        <v>243</v>
       </c>
       <c r="AF1" s="3" t="s">
-        <v>186</v>
+        <v>244</v>
       </c>
       <c r="AG1" s="3" t="s">
-        <v>187</v>
+        <v>245</v>
       </c>
       <c r="AH1" s="3" t="s">
-        <v>188</v>
+        <v>246</v>
       </c>
       <c r="AI1" s="3" t="s">
-        <v>189</v>
+        <v>247</v>
       </c>
       <c r="AJ1" s="3" t="s">
-        <v>190</v>
+        <v>248</v>
       </c>
     </row>
     <row r="2" spans="1:36" x14ac:dyDescent="0.3">
@@ -1730,21 +2154,21 @@
       </c>
       <c r="N2" s="2"/>
       <c r="O2" s="4" t="s">
-        <v>174</v>
+        <v>232</v>
       </c>
       <c r="P2" s="4" t="s">
         <v>32</v>
       </c>
       <c r="Q2" s="2"/>
       <c r="R2" s="4" t="s">
-        <v>162</v>
+        <v>220</v>
       </c>
       <c r="S2" s="4" t="s">
         <v>32</v>
       </c>
       <c r="T2" s="4"/>
       <c r="U2" s="4" t="s">
-        <v>179</v>
+        <v>237</v>
       </c>
       <c r="V2" s="2"/>
       <c r="W2" s="2"/>
@@ -1757,16 +2181,16 @@
       </c>
       <c r="AA2" s="4"/>
       <c r="AB2" s="4" t="s">
-        <v>179</v>
+        <v>237</v>
       </c>
       <c r="AC2" s="4" t="s">
-        <v>179</v>
+        <v>237</v>
       </c>
       <c r="AD2" s="4" t="s">
-        <v>162</v>
+        <v>220</v>
       </c>
       <c r="AE2" s="4" t="s">
-        <v>162</v>
+        <v>220</v>
       </c>
       <c r="AF2" s="4"/>
       <c r="AG2" s="4"/>
@@ -1774,10 +2198,10 @@
         <v>25</v>
       </c>
       <c r="AI2" s="4" t="s">
-        <v>162</v>
+        <v>220</v>
       </c>
       <c r="AJ2" s="4" t="s">
-        <v>162</v>
+        <v>220</v>
       </c>
     </row>
     <row r="3" spans="1:36" x14ac:dyDescent="0.3">
@@ -1785,7 +2209,7 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>191</v>
+        <v>249</v>
       </c>
       <c r="D3">
         <v>4</v>
@@ -1818,16 +2242,16 @@
         <v>0</v>
       </c>
       <c r="Q3" t="s">
-        <v>192</v>
+        <v>250</v>
       </c>
       <c r="T3">
         <v>0.95</v>
       </c>
       <c r="V3" t="s">
-        <v>193</v>
+        <v>251</v>
       </c>
       <c r="W3" t="s">
-        <v>171</v>
+        <v>229</v>
       </c>
       <c r="Y3">
         <v>11</v>
@@ -1871,8 +2295,8 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0A00-000000000000}">
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0B00-000000000000}">
   <dimension ref="A1:W3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -1911,7 +2335,7 @@
   <sheetData>
     <row r="1" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A1" s="3" t="s">
-        <v>155</v>
+        <v>213</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>1</v>
@@ -1920,19 +2344,19 @@
         <v>3</v>
       </c>
       <c r="D1" s="3" t="s">
-        <v>156</v>
+        <v>214</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>157</v>
+        <v>215</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>158</v>
+        <v>216</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>159</v>
+        <v>217</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>160</v>
+        <v>218</v>
       </c>
       <c r="I1" s="3" t="s">
         <v>12</v>
@@ -1950,16 +2374,16 @@
         <v>18</v>
       </c>
       <c r="N1" s="1" t="s">
-        <v>172</v>
+        <v>230</v>
       </c>
       <c r="O1" s="3" t="s">
-        <v>194</v>
+        <v>252</v>
       </c>
       <c r="P1" s="3" t="s">
-        <v>173</v>
+        <v>231</v>
       </c>
       <c r="Q1" s="1" t="s">
-        <v>169</v>
+        <v>227</v>
       </c>
       <c r="R1" s="1" t="s">
         <v>96</v>
@@ -1968,16 +2392,16 @@
         <v>4</v>
       </c>
       <c r="T1" s="3" t="s">
-        <v>196</v>
+        <v>254</v>
       </c>
       <c r="U1" s="1" t="s">
-        <v>197</v>
+        <v>255</v>
       </c>
       <c r="V1" s="1" t="s">
-        <v>198</v>
+        <v>256</v>
       </c>
       <c r="W1" s="3" t="s">
-        <v>177</v>
+        <v>235</v>
       </c>
     </row>
     <row r="2" spans="1:23" x14ac:dyDescent="0.3">
@@ -1999,10 +2423,10 @@
       </c>
       <c r="N2" s="2"/>
       <c r="O2" s="4" t="s">
-        <v>195</v>
+        <v>253</v>
       </c>
       <c r="P2" s="4" t="s">
-        <v>174</v>
+        <v>232</v>
       </c>
       <c r="Q2" s="2"/>
       <c r="R2" s="2"/>
@@ -2010,7 +2434,7 @@
         <v>5</v>
       </c>
       <c r="T2" s="4" t="s">
-        <v>174</v>
+        <v>232</v>
       </c>
       <c r="U2" s="2"/>
       <c r="V2" s="2"/>
@@ -2021,7 +2445,7 @@
         <v>3</v>
       </c>
       <c r="B3" t="s">
-        <v>199</v>
+        <v>257</v>
       </c>
       <c r="D3">
         <v>3</v>
@@ -2051,10 +2475,10 @@
         <v>12</v>
       </c>
       <c r="Q3" t="s">
-        <v>171</v>
+        <v>229</v>
       </c>
       <c r="R3" t="s">
-        <v>200</v>
+        <v>258</v>
       </c>
       <c r="S3">
         <v>0.40000001000000002</v>
@@ -2063,7 +2487,7 @@
         <v>7.4999999999999997E-2</v>
       </c>
       <c r="V3" t="s">
-        <v>201</v>
+        <v>259</v>
       </c>
       <c r="W3">
         <v>1</v>
@@ -2074,8 +2498,8 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0B00-000000000000}">
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0C00-000000000000}">
   <dimension ref="A1:AA3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2116,7 +2540,7 @@
   <sheetData>
     <row r="1" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A1" s="3" t="s">
-        <v>155</v>
+        <v>213</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>1</v>
@@ -2125,19 +2549,19 @@
         <v>3</v>
       </c>
       <c r="D1" s="3" t="s">
-        <v>156</v>
+        <v>214</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>157</v>
+        <v>215</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>158</v>
+        <v>216</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>159</v>
+        <v>217</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>160</v>
+        <v>218</v>
       </c>
       <c r="I1" s="3" t="s">
         <v>12</v>
@@ -2155,46 +2579,46 @@
         <v>18</v>
       </c>
       <c r="N1" s="1" t="s">
-        <v>172</v>
+        <v>230</v>
       </c>
       <c r="O1" s="3" t="s">
-        <v>202</v>
+        <v>260</v>
       </c>
       <c r="P1" s="3" t="s">
-        <v>180</v>
+        <v>238</v>
       </c>
       <c r="Q1" s="1" t="s">
-        <v>203</v>
+        <v>261</v>
       </c>
       <c r="R1" s="1" t="s">
-        <v>204</v>
+        <v>262</v>
       </c>
       <c r="S1" s="1" t="s">
-        <v>169</v>
+        <v>227</v>
       </c>
       <c r="T1" s="1" t="s">
-        <v>205</v>
+        <v>263</v>
       </c>
       <c r="U1" s="1" t="s">
-        <v>206</v>
+        <v>264</v>
       </c>
       <c r="V1" s="1" t="s">
-        <v>207</v>
+        <v>265</v>
       </c>
       <c r="W1" s="1" t="s">
-        <v>197</v>
+        <v>255</v>
       </c>
       <c r="X1" s="3" t="s">
-        <v>208</v>
+        <v>266</v>
       </c>
       <c r="Y1" s="3" t="s">
-        <v>209</v>
+        <v>267</v>
       </c>
       <c r="Z1" s="3" t="s">
-        <v>210</v>
+        <v>268</v>
       </c>
       <c r="AA1" s="1" t="s">
-        <v>211</v>
+        <v>269</v>
       </c>
     </row>
     <row r="2" spans="1:27" x14ac:dyDescent="0.3">
@@ -2216,10 +2640,10 @@
       </c>
       <c r="N2" s="2"/>
       <c r="O2" s="4" t="s">
-        <v>174</v>
+        <v>232</v>
       </c>
       <c r="P2" s="4" t="s">
-        <v>179</v>
+        <v>237</v>
       </c>
       <c r="Q2" s="2"/>
       <c r="R2" s="2"/>
@@ -2238,7 +2662,7 @@
         <v>6</v>
       </c>
       <c r="B3" t="s">
-        <v>212</v>
+        <v>270</v>
       </c>
       <c r="D3">
         <v>3</v>
@@ -2271,13 +2695,13 @@
         <v>0.1</v>
       </c>
       <c r="Q3" t="s">
-        <v>171</v>
+        <v>229</v>
       </c>
       <c r="R3" t="s">
-        <v>213</v>
+        <v>271</v>
       </c>
       <c r="S3" t="s">
-        <v>171</v>
+        <v>229</v>
       </c>
       <c r="X3">
         <v>0</v>
@@ -2294,8 +2718,8 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0C00-000000000000}">
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0D00-000000000000}">
   <dimension ref="A1:AR3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2351,7 +2775,7 @@
   <sheetData>
     <row r="1" spans="1:44" x14ac:dyDescent="0.3">
       <c r="A1" s="3" t="s">
-        <v>155</v>
+        <v>213</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>1</v>
@@ -2360,19 +2784,19 @@
         <v>3</v>
       </c>
       <c r="D1" s="3" t="s">
-        <v>156</v>
+        <v>214</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>157</v>
+        <v>215</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>158</v>
+        <v>216</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>159</v>
+        <v>217</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>160</v>
+        <v>218</v>
       </c>
       <c r="I1" s="3" t="s">
         <v>12</v>
@@ -2390,49 +2814,49 @@
         <v>18</v>
       </c>
       <c r="N1" s="1" t="s">
-        <v>172</v>
+        <v>230</v>
       </c>
       <c r="O1" s="3" t="s">
-        <v>214</v>
+        <v>272</v>
       </c>
       <c r="P1" s="3" t="s">
-        <v>215</v>
+        <v>273</v>
       </c>
       <c r="Q1" s="1" t="s">
-        <v>203</v>
+        <v>261</v>
       </c>
       <c r="R1" s="1" t="s">
-        <v>204</v>
+        <v>262</v>
       </c>
       <c r="S1" s="1" t="s">
-        <v>216</v>
+        <v>274</v>
       </c>
       <c r="T1" s="3" t="s">
-        <v>217</v>
+        <v>275</v>
       </c>
       <c r="U1" s="3" t="s">
-        <v>218</v>
+        <v>276</v>
       </c>
       <c r="V1" s="1" t="s">
-        <v>219</v>
+        <v>277</v>
       </c>
       <c r="W1" s="3" t="s">
-        <v>220</v>
+        <v>278</v>
       </c>
       <c r="X1" s="1" t="s">
-        <v>222</v>
+        <v>280</v>
       </c>
       <c r="Y1" s="3" t="s">
-        <v>208</v>
+        <v>266</v>
       </c>
       <c r="Z1" s="3" t="s">
-        <v>209</v>
+        <v>267</v>
       </c>
       <c r="AA1" s="3" t="s">
-        <v>210</v>
+        <v>268</v>
       </c>
       <c r="AB1" s="3" t="s">
-        <v>211</v>
+        <v>269</v>
       </c>
       <c r="AC1" s="3" t="s">
         <v>103</v>
@@ -2465,7 +2889,7 @@
         <v>132</v>
       </c>
       <c r="AM1" s="3" t="s">
-        <v>223</v>
+        <v>281</v>
       </c>
       <c r="AN1" s="3" t="s">
         <v>133</v>
@@ -2502,23 +2926,23 @@
       </c>
       <c r="N2" s="2"/>
       <c r="O2" s="4" t="s">
-        <v>174</v>
+        <v>232</v>
       </c>
       <c r="P2" s="4" t="s">
-        <v>179</v>
+        <v>237</v>
       </c>
       <c r="Q2" s="2"/>
       <c r="R2" s="2"/>
       <c r="S2" s="2"/>
       <c r="T2" s="4" t="s">
-        <v>174</v>
+        <v>232</v>
       </c>
       <c r="U2" s="4" t="s">
-        <v>179</v>
+        <v>237</v>
       </c>
       <c r="V2" s="2"/>
       <c r="W2" s="4" t="s">
-        <v>221</v>
+        <v>279</v>
       </c>
       <c r="X2" s="2"/>
       <c r="Y2" s="4"/>
@@ -2561,7 +2985,7 @@
         <v>4</v>
       </c>
       <c r="B3" t="s">
-        <v>224</v>
+        <v>282</v>
       </c>
       <c r="D3">
         <v>3</v>
@@ -2594,13 +3018,13 @@
         <v>0.02</v>
       </c>
       <c r="Q3" t="s">
-        <v>225</v>
+        <v>283</v>
       </c>
       <c r="R3" t="s">
-        <v>226</v>
+        <v>284</v>
       </c>
       <c r="S3" t="s">
-        <v>171</v>
+        <v>229</v>
       </c>
       <c r="T3">
         <v>0.03</v>
@@ -2609,13 +3033,13 @@
         <v>0.01</v>
       </c>
       <c r="V3" t="s">
-        <v>171</v>
+        <v>229</v>
       </c>
       <c r="W3">
         <v>0.01</v>
       </c>
       <c r="X3" t="s">
-        <v>171</v>
+        <v>229</v>
       </c>
       <c r="Y3">
         <v>0</v>
@@ -2648,7 +3072,7 @@
         <v>50</v>
       </c>
       <c r="AL3" t="s">
-        <v>227</v>
+        <v>285</v>
       </c>
       <c r="AM3">
         <v>0</v>
@@ -2674,8 +3098,8 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0D00-000000000000}">
+<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0E00-000000000000}">
   <dimension ref="A1:S3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2710,7 +3134,7 @@
   <sheetData>
     <row r="1" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A1" s="3" t="s">
-        <v>155</v>
+        <v>213</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>1</v>
@@ -2719,19 +3143,19 @@
         <v>3</v>
       </c>
       <c r="D1" s="3" t="s">
-        <v>156</v>
+        <v>214</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>157</v>
+        <v>215</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>158</v>
+        <v>216</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>159</v>
+        <v>217</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>160</v>
+        <v>218</v>
       </c>
       <c r="I1" s="3" t="s">
         <v>12</v>
@@ -2749,7 +3173,7 @@
         <v>18</v>
       </c>
       <c r="N1" s="3" t="s">
-        <v>180</v>
+        <v>238</v>
       </c>
       <c r="O1" s="3" t="s">
         <v>60</v>
@@ -2758,13 +3182,13 @@
         <v>4</v>
       </c>
       <c r="Q1" s="1" t="s">
-        <v>169</v>
+        <v>227</v>
       </c>
       <c r="R1" s="1" t="s">
-        <v>228</v>
+        <v>286</v>
       </c>
       <c r="S1" s="1" t="s">
-        <v>229</v>
+        <v>287</v>
       </c>
     </row>
     <row r="2" spans="1:19" x14ac:dyDescent="0.3">
@@ -2785,7 +3209,7 @@
         <v>15</v>
       </c>
       <c r="N2" s="4" t="s">
-        <v>179</v>
+        <v>237</v>
       </c>
       <c r="O2" s="4" t="s">
         <v>87</v>
@@ -2802,7 +3226,7 @@
         <v>9</v>
       </c>
       <c r="B3" t="s">
-        <v>230</v>
+        <v>288</v>
       </c>
       <c r="D3">
         <v>4</v>
@@ -2838,7 +3262,7 @@
         <v>11</v>
       </c>
       <c r="Q3" t="s">
-        <v>171</v>
+        <v>229</v>
       </c>
       <c r="R3" t="b">
         <v>0</v>
@@ -2852,8 +3276,157 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0E00-000000000000}">
+<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0F00-000000000000}">
+  <dimension ref="A1:P3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane xSplit="3" ySplit="2" topLeftCell="D3" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight"/>
+      <selection pane="bottomLeft"/>
+      <selection pane="bottomRight"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="12.109375" customWidth="1"/>
+    <col min="2" max="2" width="6.5546875" customWidth="1"/>
+    <col min="3" max="3" width="5.88671875" customWidth="1"/>
+    <col min="4" max="4" width="14.77734375" customWidth="1"/>
+    <col min="5" max="5" width="12.5546875" customWidth="1"/>
+    <col min="6" max="6" width="8.77734375" customWidth="1"/>
+    <col min="7" max="7" width="7.44140625" customWidth="1"/>
+    <col min="8" max="8" width="12.77734375" customWidth="1"/>
+    <col min="9" max="9" width="17.88671875" customWidth="1"/>
+    <col min="10" max="10" width="16.21875" customWidth="1"/>
+    <col min="11" max="11" width="24.21875" customWidth="1"/>
+    <col min="12" max="12" width="22.88671875" customWidth="1"/>
+    <col min="13" max="13" width="23.5546875" customWidth="1"/>
+    <col min="14" max="14" width="5.88671875" customWidth="1"/>
+    <col min="15" max="15" width="6.6640625" customWidth="1"/>
+    <col min="16" max="16" width="7.77734375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A1" s="3" t="s">
+        <v>213</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>214</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>215</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>216</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>217</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>218</v>
+      </c>
+      <c r="I1" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="J1" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="K1" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="L1" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="M1" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="N1" s="3" t="s">
+        <v>238</v>
+      </c>
+      <c r="O1" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="P1" s="1" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="2" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="H2" s="2"/>
+      <c r="I2" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="J2" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="K2" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="L2" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="M2" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="N2" s="4" t="s">
+        <v>237</v>
+      </c>
+      <c r="O2" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="P2" s="2"/>
+    </row>
+    <row r="3" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A3">
+        <v>1</v>
+      </c>
+      <c r="D3">
+        <v>4</v>
+      </c>
+      <c r="E3" t="s">
+        <v>42</v>
+      </c>
+      <c r="H3" t="s">
+        <v>92</v>
+      </c>
+      <c r="I3">
+        <v>0</v>
+      </c>
+      <c r="J3">
+        <v>0</v>
+      </c>
+      <c r="K3">
+        <v>0</v>
+      </c>
+      <c r="L3">
+        <v>0</v>
+      </c>
+      <c r="M3">
+        <v>0</v>
+      </c>
+      <c r="N3">
+        <v>0.5</v>
+      </c>
+      <c r="O3">
+        <v>11</v>
+      </c>
+      <c r="P3" t="s">
+        <v>229</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1000-000000000000}">
   <dimension ref="A1:P3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2884,7 +3457,7 @@
   <sheetData>
     <row r="1" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A1" s="3" t="s">
-        <v>155</v>
+        <v>213</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>1</v>
@@ -2893,19 +3466,19 @@
         <v>3</v>
       </c>
       <c r="D1" s="3" t="s">
-        <v>156</v>
+        <v>214</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>157</v>
+        <v>215</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>158</v>
+        <v>216</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>159</v>
+        <v>217</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>160</v>
+        <v>218</v>
       </c>
       <c r="I1" s="3" t="s">
         <v>12</v>
@@ -2962,7 +3535,7 @@
         <v>5</v>
       </c>
       <c r="B3" t="s">
-        <v>231</v>
+        <v>289</v>
       </c>
       <c r="D3">
         <v>3</v>
@@ -2989,7 +3562,7 @@
         <v>0</v>
       </c>
       <c r="N3" t="s">
-        <v>232</v>
+        <v>290</v>
       </c>
       <c r="O3">
         <v>0</v>
@@ -3003,8 +3576,8 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0F00-000000000000}">
+<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1100-000000000000}">
   <dimension ref="A1:X3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3044,7 +3617,7 @@
   <sheetData>
     <row r="1" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A1" s="3" t="s">
-        <v>155</v>
+        <v>213</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>1</v>
@@ -3053,19 +3626,19 @@
         <v>3</v>
       </c>
       <c r="D1" s="3" t="s">
-        <v>156</v>
+        <v>214</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>157</v>
+        <v>215</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>158</v>
+        <v>216</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>159</v>
+        <v>217</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>160</v>
+        <v>218</v>
       </c>
       <c r="I1" s="3" t="s">
         <v>12</v>
@@ -3083,37 +3656,37 @@
         <v>18</v>
       </c>
       <c r="N1" s="1" t="s">
-        <v>172</v>
+        <v>230</v>
       </c>
       <c r="O1" s="3" t="s">
-        <v>233</v>
+        <v>291</v>
       </c>
       <c r="P1" s="1" t="s">
-        <v>169</v>
+        <v>227</v>
       </c>
       <c r="Q1" s="3" t="s">
-        <v>235</v>
+        <v>293</v>
       </c>
       <c r="R1" s="3" t="s">
         <v>49</v>
       </c>
       <c r="S1" s="3" t="s">
-        <v>196</v>
+        <v>254</v>
       </c>
       <c r="T1" s="3" t="s">
-        <v>238</v>
+        <v>296</v>
       </c>
       <c r="U1" s="1" t="s">
-        <v>239</v>
+        <v>297</v>
       </c>
       <c r="V1" s="1" t="s">
-        <v>240</v>
+        <v>298</v>
       </c>
       <c r="W1" s="1" t="s">
-        <v>241</v>
+        <v>299</v>
       </c>
       <c r="X1" s="3" t="s">
-        <v>242</v>
+        <v>300</v>
       </c>
     </row>
     <row r="2" spans="1:24" x14ac:dyDescent="0.3">
@@ -3135,23 +3708,23 @@
       </c>
       <c r="N2" s="2"/>
       <c r="O2" s="4" t="s">
-        <v>234</v>
+        <v>292</v>
       </c>
       <c r="P2" s="2"/>
       <c r="Q2" s="4" t="s">
-        <v>236</v>
+        <v>294</v>
       </c>
       <c r="R2" s="4" t="s">
-        <v>237</v>
+        <v>295</v>
       </c>
       <c r="S2" s="4" t="s">
-        <v>221</v>
+        <v>279</v>
       </c>
       <c r="T2" s="4" t="s">
         <v>112</v>
       </c>
       <c r="U2" s="2" t="s">
-        <v>174</v>
+        <v>232</v>
       </c>
       <c r="V2" s="2"/>
       <c r="W2" s="2"/>
@@ -3162,7 +3735,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>243</v>
+        <v>301</v>
       </c>
       <c r="D3">
         <v>3</v>
@@ -3192,7 +3765,7 @@
         <v>1000</v>
       </c>
       <c r="P3" t="s">
-        <v>171</v>
+        <v>229</v>
       </c>
       <c r="Q3">
         <v>52</v>
@@ -3207,10 +3780,10 @@
         <v>0.5</v>
       </c>
       <c r="U3" t="s">
-        <v>244</v>
+        <v>302</v>
       </c>
       <c r="W3" t="s">
-        <v>201</v>
+        <v>259</v>
       </c>
       <c r="X3">
         <v>1</v>
@@ -3774,7 +4347,9 @@
     <col min="18" max="18" width="23.5546875" customWidth="1"/>
     <col min="19" max="19" width="11.5546875" customWidth="1"/>
     <col min="20" max="21" width="6.109375" customWidth="1"/>
-    <col min="22" max="25" width="5.88671875" customWidth="1"/>
+    <col min="22" max="22" width="5.88671875" customWidth="1"/>
+    <col min="23" max="24" width="6.109375" customWidth="1"/>
+    <col min="25" max="25" width="5.88671875" customWidth="1"/>
     <col min="26" max="26" width="6.33203125" customWidth="1"/>
     <col min="27" max="27" width="6.5546875" customWidth="1"/>
   </cols>
@@ -3957,13 +4532,13 @@
         <v>0.5</v>
       </c>
       <c r="W3">
-        <v>0</v>
+        <v>2E-3</v>
       </c>
       <c r="X3">
-        <v>0</v>
+        <v>8.0000000000000002E-3</v>
       </c>
       <c r="Y3">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="Z3">
         <v>1000</v>
@@ -5287,7 +5862,7 @@
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
-  <dimension ref="A1:U3"/>
+  <dimension ref="A1:CE3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="3" ySplit="2" topLeftCell="D3" activePane="bottomRight" state="frozen"/>
@@ -5298,32 +5873,60 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="12.109375" customWidth="1"/>
-    <col min="2" max="2" width="8.33203125" customWidth="1"/>
+    <col min="1" max="1" width="8.77734375" customWidth="1"/>
+    <col min="2" max="2" width="6.5546875" customWidth="1"/>
     <col min="3" max="3" width="5.88671875" customWidth="1"/>
-    <col min="4" max="4" width="14.77734375" customWidth="1"/>
-    <col min="5" max="5" width="12.5546875" customWidth="1"/>
-    <col min="6" max="6" width="8.77734375" customWidth="1"/>
-    <col min="7" max="7" width="7.44140625" customWidth="1"/>
-    <col min="8" max="8" width="12.77734375" customWidth="1"/>
-    <col min="9" max="9" width="17.88671875" customWidth="1"/>
-    <col min="10" max="10" width="16.21875" customWidth="1"/>
-    <col min="11" max="11" width="24.21875" customWidth="1"/>
-    <col min="12" max="12" width="22.88671875" customWidth="1"/>
-    <col min="13" max="13" width="23.5546875" customWidth="1"/>
-    <col min="14" max="14" width="5.88671875" customWidth="1"/>
-    <col min="15" max="15" width="6.33203125" customWidth="1"/>
-    <col min="16" max="16" width="8.44140625" customWidth="1"/>
-    <col min="17" max="17" width="7.77734375" customWidth="1"/>
-    <col min="18" max="18" width="8.21875" customWidth="1"/>
-    <col min="19" max="19" width="5.88671875" customWidth="1"/>
-    <col min="20" max="20" width="6.33203125" customWidth="1"/>
-    <col min="21" max="21" width="7.77734375" customWidth="1"/>
+    <col min="4" max="4" width="16" customWidth="1"/>
+    <col min="5" max="5" width="13.6640625" customWidth="1"/>
+    <col min="6" max="6" width="10" customWidth="1"/>
+    <col min="7" max="7" width="12.5546875" customWidth="1"/>
+    <col min="8" max="8" width="14.5546875" customWidth="1"/>
+    <col min="9" max="9" width="16" customWidth="1"/>
+    <col min="10" max="10" width="13.6640625" customWidth="1"/>
+    <col min="11" max="11" width="10" customWidth="1"/>
+    <col min="12" max="12" width="12.5546875" customWidth="1"/>
+    <col min="13" max="13" width="14.5546875" customWidth="1"/>
+    <col min="14" max="14" width="16" customWidth="1"/>
+    <col min="15" max="15" width="13.6640625" customWidth="1"/>
+    <col min="16" max="16" width="10" customWidth="1"/>
+    <col min="17" max="17" width="12.5546875" customWidth="1"/>
+    <col min="18" max="18" width="14.5546875" customWidth="1"/>
+    <col min="19" max="19" width="17.88671875" customWidth="1"/>
+    <col min="20" max="20" width="16.21875" customWidth="1"/>
+    <col min="21" max="21" width="24.21875" customWidth="1"/>
+    <col min="22" max="22" width="22.88671875" customWidth="1"/>
+    <col min="23" max="23" width="23.5546875" customWidth="1"/>
+    <col min="24" max="24" width="5.88671875" customWidth="1"/>
+    <col min="25" max="25" width="6" customWidth="1"/>
+    <col min="26" max="34" width="5.88671875" customWidth="1"/>
+    <col min="35" max="37" width="8" customWidth="1"/>
+    <col min="38" max="39" width="14.44140625" customWidth="1"/>
+    <col min="40" max="40" width="15.77734375" customWidth="1"/>
+    <col min="41" max="41" width="8" customWidth="1"/>
+    <col min="42" max="42" width="5.88671875" customWidth="1"/>
+    <col min="43" max="43" width="7.21875" customWidth="1"/>
+    <col min="44" max="46" width="5.88671875" customWidth="1"/>
+    <col min="47" max="49" width="7.44140625" customWidth="1"/>
+    <col min="50" max="52" width="7.88671875" customWidth="1"/>
+    <col min="53" max="58" width="5.88671875" customWidth="1"/>
+    <col min="59" max="61" width="6.21875" customWidth="1"/>
+    <col min="62" max="69" width="5.88671875" customWidth="1"/>
+    <col min="70" max="72" width="7.21875" customWidth="1"/>
+    <col min="73" max="73" width="11.88671875" customWidth="1"/>
+    <col min="74" max="74" width="10.33203125" customWidth="1"/>
+    <col min="75" max="75" width="10" customWidth="1"/>
+    <col min="76" max="76" width="10.109375" customWidth="1"/>
+    <col min="77" max="77" width="10.88671875" customWidth="1"/>
+    <col min="78" max="79" width="10.5546875" customWidth="1"/>
+    <col min="80" max="80" width="10.21875" customWidth="1"/>
+    <col min="81" max="81" width="10.33203125" customWidth="1"/>
+    <col min="82" max="82" width="11" customWidth="1"/>
+    <col min="83" max="83" width="10.77734375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:83" x14ac:dyDescent="0.3">
       <c r="A1" s="3" t="s">
-        <v>155</v>
+        <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>1</v>
@@ -5332,150 +5935,628 @@
         <v>3</v>
       </c>
       <c r="D1" s="3" t="s">
+        <v>155</v>
+      </c>
+      <c r="E1" s="1" t="s">
         <v>156</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>157</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>158</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="H1" s="1" t="s">
         <v>159</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="I1" s="3" t="s">
         <v>160</v>
       </c>
-      <c r="I1" s="3" t="s">
+      <c r="J1" s="1" t="s">
+        <v>161</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>162</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>163</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>164</v>
+      </c>
+      <c r="N1" s="3" t="s">
+        <v>165</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>166</v>
+      </c>
+      <c r="P1" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="Q1" s="1" t="s">
+        <v>168</v>
+      </c>
+      <c r="R1" s="1" t="s">
+        <v>169</v>
+      </c>
+      <c r="S1" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="J1" s="3" t="s">
+      <c r="T1" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="K1" s="3" t="s">
+      <c r="U1" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="L1" s="3" t="s">
+      <c r="V1" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="M1" s="3" t="s">
+      <c r="W1" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="N1" s="3" t="s">
-        <v>161</v>
-      </c>
-      <c r="O1" s="3" t="s">
-        <v>163</v>
-      </c>
-      <c r="P1" s="3" t="s">
-        <v>164</v>
-      </c>
-      <c r="Q1" s="3" t="s">
-        <v>165</v>
-      </c>
-      <c r="R1" s="3" t="s">
-        <v>166</v>
-      </c>
-      <c r="S1" s="3" t="s">
-        <v>167</v>
-      </c>
-      <c r="T1" s="3" t="s">
-        <v>168</v>
-      </c>
-      <c r="U1" s="1" t="s">
-        <v>169</v>
+      <c r="X1" s="3" t="s">
+        <v>170</v>
+      </c>
+      <c r="Y1" s="3" t="s">
+        <v>171</v>
+      </c>
+      <c r="Z1" s="3" t="s">
+        <v>105</v>
+      </c>
+      <c r="AA1" s="3" t="s">
+        <v>106</v>
+      </c>
+      <c r="AB1" s="3" t="s">
+        <v>107</v>
+      </c>
+      <c r="AC1" s="3" t="s">
+        <v>108</v>
+      </c>
+      <c r="AD1" s="3" t="s">
+        <v>109</v>
+      </c>
+      <c r="AE1" s="3" t="s">
+        <v>110</v>
+      </c>
+      <c r="AF1" s="3" t="s">
+        <v>172</v>
+      </c>
+      <c r="AG1" s="3" t="s">
+        <v>173</v>
+      </c>
+      <c r="AH1" s="3" t="s">
+        <v>174</v>
+      </c>
+      <c r="AI1" s="3" t="s">
+        <v>175</v>
+      </c>
+      <c r="AJ1" s="3" t="s">
+        <v>176</v>
+      </c>
+      <c r="AK1" s="3" t="s">
+        <v>177</v>
+      </c>
+      <c r="AL1" s="3" t="s">
+        <v>178</v>
+      </c>
+      <c r="AM1" s="3" t="s">
+        <v>179</v>
+      </c>
+      <c r="AN1" s="3" t="s">
+        <v>115</v>
+      </c>
+      <c r="AO1" s="3" t="s">
+        <v>116</v>
+      </c>
+      <c r="AP1" s="3" t="s">
+        <v>117</v>
+      </c>
+      <c r="AQ1" s="3" t="s">
+        <v>118</v>
+      </c>
+      <c r="AR1" s="3" t="s">
+        <v>119</v>
+      </c>
+      <c r="AS1" s="3" t="s">
+        <v>120</v>
+      </c>
+      <c r="AT1" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="AU1" s="3" t="s">
+        <v>180</v>
+      </c>
+      <c r="AV1" s="3" t="s">
+        <v>181</v>
+      </c>
+      <c r="AW1" s="3" t="s">
+        <v>182</v>
+      </c>
+      <c r="AX1" s="3" t="s">
+        <v>124</v>
+      </c>
+      <c r="AY1" s="3" t="s">
+        <v>125</v>
+      </c>
+      <c r="AZ1" s="3" t="s">
+        <v>183</v>
+      </c>
+      <c r="BA1" s="3" t="s">
+        <v>184</v>
+      </c>
+      <c r="BB1" s="3" t="s">
+        <v>185</v>
+      </c>
+      <c r="BC1" s="3" t="s">
+        <v>186</v>
+      </c>
+      <c r="BD1" s="3" t="s">
+        <v>187</v>
+      </c>
+      <c r="BE1" s="3" t="s">
+        <v>188</v>
+      </c>
+      <c r="BF1" s="3" t="s">
+        <v>189</v>
+      </c>
+      <c r="BG1" s="3" t="s">
+        <v>190</v>
+      </c>
+      <c r="BH1" s="3" t="s">
+        <v>191</v>
+      </c>
+      <c r="BI1" s="3" t="s">
+        <v>192</v>
+      </c>
+      <c r="BJ1" s="3" t="s">
+        <v>129</v>
+      </c>
+      <c r="BK1" s="3" t="s">
+        <v>130</v>
+      </c>
+      <c r="BL1" s="3" t="s">
+        <v>193</v>
+      </c>
+      <c r="BM1" s="3" t="s">
+        <v>194</v>
+      </c>
+      <c r="BN1" s="3" t="s">
+        <v>195</v>
+      </c>
+      <c r="BO1" s="3" t="s">
+        <v>196</v>
+      </c>
+      <c r="BP1" s="3" t="s">
+        <v>197</v>
+      </c>
+      <c r="BQ1" s="3" t="s">
+        <v>198</v>
+      </c>
+      <c r="BR1" s="3" t="s">
+        <v>199</v>
+      </c>
+      <c r="BS1" s="3" t="s">
+        <v>200</v>
+      </c>
+      <c r="BT1" s="3" t="s">
+        <v>201</v>
+      </c>
+      <c r="BU1" s="3" t="s">
+        <v>132</v>
+      </c>
+      <c r="BV1" s="3" t="s">
+        <v>202</v>
+      </c>
+      <c r="BW1" s="3" t="s">
+        <v>203</v>
+      </c>
+      <c r="BX1" s="3" t="s">
+        <v>204</v>
+      </c>
+      <c r="BY1" s="3" t="s">
+        <v>205</v>
+      </c>
+      <c r="BZ1" s="3" t="s">
+        <v>206</v>
+      </c>
+      <c r="CA1" s="3" t="s">
+        <v>207</v>
+      </c>
+      <c r="CB1" s="3" t="s">
+        <v>208</v>
+      </c>
+      <c r="CC1" s="3" t="s">
+        <v>209</v>
+      </c>
+      <c r="CD1" s="3" t="s">
+        <v>210</v>
+      </c>
+      <c r="CE1" s="3" t="s">
+        <v>211</v>
       </c>
     </row>
-    <row r="2" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="H2" s="2"/>
-      <c r="I2" s="4" t="s">
+    <row r="2" spans="1:83" x14ac:dyDescent="0.3">
+      <c r="S2" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="J2" s="4" t="s">
+      <c r="T2" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="K2" s="4" t="s">
+      <c r="U2" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="L2" s="4" t="s">
+      <c r="V2" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="M2" s="4" t="s">
+      <c r="W2" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="N2" s="4" t="s">
-        <v>162</v>
-      </c>
-      <c r="O2" s="4" t="s">
-        <v>34</v>
-      </c>
-      <c r="P2" s="4" t="s">
+      <c r="X2" s="4"/>
+      <c r="Y2" s="4"/>
+      <c r="Z2" s="4"/>
+      <c r="AA2" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="AB2" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="AC2" s="4"/>
+      <c r="AD2" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="AE2" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="AF2" s="4"/>
+      <c r="AG2" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="AH2" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="AI2" s="4" t="s">
         <v>112</v>
       </c>
-      <c r="Q2" s="4" t="s">
+      <c r="AJ2" s="4" t="s">
         <v>112</v>
       </c>
-      <c r="R2" s="4" t="s">
+      <c r="AK2" s="4" t="s">
         <v>112</v>
       </c>
-      <c r="S2" s="4"/>
-      <c r="T2" s="4"/>
-      <c r="U2" s="2"/>
+      <c r="AL2" s="4" t="s">
+        <v>114</v>
+      </c>
+      <c r="AM2" s="4" t="s">
+        <v>114</v>
+      </c>
+      <c r="AN2" s="4"/>
+      <c r="AO2" s="4"/>
+      <c r="AP2" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="AQ2" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="AR2" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="AS2" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="AT2" s="2"/>
+      <c r="AU2" s="4" t="s">
+        <v>112</v>
+      </c>
+      <c r="AV2" s="4" t="s">
+        <v>112</v>
+      </c>
+      <c r="AW2" s="4" t="s">
+        <v>112</v>
+      </c>
+      <c r="AX2" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="AY2" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="AZ2" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="BA2" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="BB2" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="BC2" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="BD2" s="4" t="s">
+        <v>128</v>
+      </c>
+      <c r="BE2" s="4" t="s">
+        <v>128</v>
+      </c>
+      <c r="BF2" s="4" t="s">
+        <v>128</v>
+      </c>
+      <c r="BG2" s="4" t="s">
+        <v>112</v>
+      </c>
+      <c r="BH2" s="4" t="s">
+        <v>112</v>
+      </c>
+      <c r="BI2" s="4" t="s">
+        <v>112</v>
+      </c>
+      <c r="BJ2" s="4" t="s">
+        <v>128</v>
+      </c>
+      <c r="BK2" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="BL2" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="BM2" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="BN2" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="BO2" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="BP2" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="BQ2" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="BR2" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="BS2" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="BT2" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="BU2" s="4"/>
+      <c r="BV2" s="4"/>
+      <c r="BW2" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="BX2" s="4"/>
+      <c r="BY2" s="4"/>
+      <c r="BZ2" s="4"/>
+      <c r="CA2" s="4"/>
+      <c r="CB2" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="CC2" s="4"/>
+      <c r="CD2" s="4"/>
+      <c r="CE2" s="4"/>
     </row>
-    <row r="3" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:83" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>1</v>
       </c>
-      <c r="B3" t="s">
-        <v>170</v>
-      </c>
       <c r="D3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E3" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="H3" t="s">
         <v>92</v>
       </c>
       <c r="I3">
-        <v>0</v>
-      </c>
-      <c r="J3">
-        <v>0</v>
-      </c>
-      <c r="K3">
-        <v>0</v>
-      </c>
-      <c r="L3">
-        <v>0</v>
-      </c>
-      <c r="M3">
-        <v>0</v>
+        <v>3</v>
+      </c>
+      <c r="J3" t="s">
+        <v>41</v>
+      </c>
+      <c r="M3" t="s">
+        <v>92</v>
       </c>
       <c r="N3">
+        <v>5</v>
+      </c>
+      <c r="R3" t="s">
+        <v>92</v>
+      </c>
+      <c r="S3">
+        <v>0</v>
+      </c>
+      <c r="T3">
+        <v>0</v>
+      </c>
+      <c r="U3">
+        <v>0</v>
+      </c>
+      <c r="V3">
+        <v>0</v>
+      </c>
+      <c r="W3">
+        <v>0</v>
+      </c>
+      <c r="X3">
         <v>1</v>
       </c>
-      <c r="O3">
-        <v>0</v>
-      </c>
-      <c r="P3">
-        <v>1100</v>
-      </c>
-      <c r="Q3">
-        <v>990</v>
-      </c>
-      <c r="R3">
-        <v>1100</v>
-      </c>
-      <c r="S3">
+      <c r="Y3">
+        <v>2</v>
+      </c>
+      <c r="Z3">
+        <v>0</v>
+      </c>
+      <c r="AA3">
+        <v>0</v>
+      </c>
+      <c r="AB3">
+        <v>0</v>
+      </c>
+      <c r="AC3">
+        <v>1</v>
+      </c>
+      <c r="AD3">
+        <v>2</v>
+      </c>
+      <c r="AE3">
+        <v>3</v>
+      </c>
+      <c r="AF3">
+        <v>1</v>
+      </c>
+      <c r="AG3">
+        <v>1</v>
+      </c>
+      <c r="AH3">
+        <v>5</v>
+      </c>
+      <c r="AI3">
+        <v>0</v>
+      </c>
+      <c r="AJ3">
+        <v>0</v>
+      </c>
+      <c r="AK3">
+        <v>0</v>
+      </c>
+      <c r="AL3">
+        <v>0</v>
+      </c>
+      <c r="AM3">
+        <v>0</v>
+      </c>
+      <c r="AN3">
+        <v>0</v>
+      </c>
+      <c r="AO3">
+        <v>0</v>
+      </c>
+      <c r="AP3">
+        <v>0</v>
+      </c>
+      <c r="AQ3">
+        <v>0</v>
+      </c>
+      <c r="AR3">
+        <v>0</v>
+      </c>
+      <c r="AS3">
+        <v>0</v>
+      </c>
+      <c r="AU3">
+        <v>30</v>
+      </c>
+      <c r="AV3">
+        <v>40</v>
+      </c>
+      <c r="AW3">
+        <v>35</v>
+      </c>
+      <c r="AX3">
+        <v>11</v>
+      </c>
+      <c r="AY3">
+        <v>0.4</v>
+      </c>
+      <c r="AZ3">
+        <v>0.4</v>
+      </c>
+      <c r="BA3">
+        <v>1</v>
+      </c>
+      <c r="BB3">
+        <v>2</v>
+      </c>
+      <c r="BC3">
+        <v>3</v>
+      </c>
+      <c r="BD3">
+        <v>10</v>
+      </c>
+      <c r="BE3">
+        <v>20</v>
+      </c>
+      <c r="BF3">
+        <v>30</v>
+      </c>
+      <c r="BG3">
+        <v>20</v>
+      </c>
+      <c r="BH3">
+        <v>30</v>
+      </c>
+      <c r="BI3">
+        <v>40</v>
+      </c>
+      <c r="BJ3">
+        <v>60</v>
+      </c>
+      <c r="BK3">
+        <v>3</v>
+      </c>
+      <c r="BL3">
+        <v>0</v>
+      </c>
+      <c r="BM3">
+        <v>0</v>
+      </c>
+      <c r="BN3">
+        <v>0</v>
+      </c>
+      <c r="BO3">
+        <v>0</v>
+      </c>
+      <c r="BP3">
+        <v>0</v>
+      </c>
+      <c r="BQ3">
+        <v>0</v>
+      </c>
+      <c r="BR3">
+        <v>0</v>
+      </c>
+      <c r="BS3">
+        <v>0</v>
+      </c>
+      <c r="BT3">
+        <v>0</v>
+      </c>
+      <c r="BU3" t="s">
+        <v>212</v>
+      </c>
+      <c r="BV3">
+        <v>1</v>
+      </c>
+      <c r="BW3">
         <v>0.1</v>
       </c>
-      <c r="T3">
-        <v>3</v>
-      </c>
-      <c r="U3" t="s">
-        <v>171</v>
+      <c r="BX3">
+        <v>-5</v>
+      </c>
+      <c r="BY3">
+        <v>1</v>
+      </c>
+      <c r="BZ3">
+        <v>6</v>
+      </c>
+      <c r="CA3">
+        <v>2</v>
+      </c>
+      <c r="CB3">
+        <v>0.01</v>
+      </c>
+      <c r="CC3">
+        <v>-7</v>
+      </c>
+      <c r="CD3">
+        <v>2</v>
+      </c>
+      <c r="CE3">
+        <v>8</v>
       </c>
     </row>
   </sheetData>
